--- a/results.xlsx
+++ b/results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Justyna\source\repos\Projekt_IO_2\Earthquake-prediction\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\studia\semestr 5\Inteligencja obliczeniowa\Stock-price-prediction-LSTM-\Stock-price-prediction-LSTM-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17338629-F557-4B68-8046-D7EDBB3D44CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E084EE2C-A704-4054-8B62-76E7B792A4BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="layers" sheetId="1" r:id="rId1"/>
@@ -18,13 +18,14 @@
     <sheet name="optimizer" sheetId="3" r:id="rId3"/>
     <sheet name="activation" sheetId="4" r:id="rId4"/>
     <sheet name="batch_size" sheetId="5" r:id="rId5"/>
+    <sheet name="neurons_2" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="23">
   <si>
     <t>param</t>
   </si>
@@ -91,12 +92,15 @@
   <si>
     <t>batch_size</t>
   </si>
+  <si>
+    <t>R²</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -119,6 +123,13 @@
       <family val="2"/>
       <charset val="238"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -128,7 +139,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -166,16 +177,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -482,13 +511,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -505,7 +534,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -522,7 +551,7 @@
         <v>0.94424983848696542</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -539,7 +568,7 @@
         <v>0.96934421623625966</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -556,7 +585,7 @@
         <v>0.95012766892503564</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -573,7 +602,7 @@
         <v>0.95398195590953194</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -590,7 +619,7 @@
         <v>0.94625260162866176</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -607,7 +636,7 @@
         <v>0.76622474938470164</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -624,7 +653,7 @@
         <v>0.88468011474554642</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -641,7 +670,7 @@
         <v>0.93860742418047605</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -658,7 +687,7 @@
         <v>0.84379817013043334</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -675,7 +704,7 @@
         <v>0.92639004518440971</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -692,7 +721,7 @@
         <v>0.51396480565841707</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -709,7 +738,7 @@
         <v>0.66794413344624193</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -726,7 +755,7 @@
         <v>0.73757340194175103</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -743,7 +772,7 @@
         <v>0.76051034193132716</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -760,7 +789,7 @@
         <v>0.69183790693959013</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -777,7 +806,7 @@
         <v>0.31402629993517123</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -794,7 +823,7 @@
         <v>0.37789158550183022</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>5</v>
       </c>
@@ -811,7 +840,7 @@
         <v>0.62854379880187228</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -828,7 +857,7 @@
         <v>0.49209452313077751</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>5</v>
       </c>
@@ -858,9 +887,9 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
@@ -877,7 +906,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -894,7 +923,7 @@
         <v>0.90839873647694536</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -911,7 +940,7 @@
         <v>0.93095879500966094</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -928,7 +957,7 @@
         <v>0.90649466793112987</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -945,7 +974,7 @@
         <v>0.90020438739050523</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -962,7 +991,7 @@
         <v>0.9345261885923325</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -979,7 +1008,7 @@
         <v>0.95150375009104282</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -996,7 +1025,7 @@
         <v>0.94766200742350948</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1013,7 +1042,7 @@
         <v>0.95440996155129154</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -1030,7 +1059,7 @@
         <v>0.91977285208893611</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1047,7 +1076,7 @@
         <v>0.91806156736135314</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1064,7 +1093,7 @@
         <v>0.95851488874167323</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -1081,7 +1110,7 @@
         <v>0.93406601118556631</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -1098,7 +1127,7 @@
         <v>0.94233485805458028</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -1115,7 +1144,7 @@
         <v>0.9530635401345563</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -1132,7 +1161,7 @@
         <v>0.95237579666990213</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -1149,7 +1178,7 @@
         <v>0.95376671223554632</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>10</v>
       </c>
@@ -1166,7 +1195,7 @@
         <v>0.95094843373358329</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>10</v>
       </c>
@@ -1183,7 +1212,7 @@
         <v>0.95449270691601351</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>10</v>
       </c>
@@ -1200,7 +1229,7 @@
         <v>0.92993591768168671</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -1230,9 +1259,9 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
@@ -1249,7 +1278,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -1266,7 +1295,7 @@
         <v>0.95939117838704369</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -1283,7 +1312,7 @@
         <v>0.97444750587642026</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -1300,7 +1329,7 @@
         <v>0.97520425912113029</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -1317,7 +1346,7 @@
         <v>0.98006150958186</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -1334,7 +1363,7 @@
         <v>0.96706750171592215</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -1351,7 +1380,7 @@
         <v>0.89335088716305078</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -1368,7 +1397,7 @@
         <v>0.74345659291865707</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -1385,7 +1414,7 @@
         <v>0.87478065564370233</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1402,7 +1431,7 @@
         <v>0.80782672194510741</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -1419,7 +1448,7 @@
         <v>0.88967919506402582</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -1436,7 +1465,7 @@
         <v>-10.15394060888066</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -1453,7 +1482,7 @@
         <v>-19.100725686569572</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -1470,7 +1499,7 @@
         <v>-8.5321797159263202</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -1487,7 +1516,7 @@
         <v>-20.20923468586788</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>11</v>
       </c>
@@ -1504,7 +1533,7 @@
         <v>-12.826191195022339</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>11</v>
       </c>
@@ -1521,7 +1550,7 @@
         <v>0.67488079030050419</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>11</v>
       </c>
@@ -1538,7 +1567,7 @@
         <v>0.56752030664713482</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>11</v>
       </c>
@@ -1555,7 +1584,7 @@
         <v>0.46083305944717717</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>11</v>
       </c>
@@ -1572,7 +1601,7 @@
         <v>0.26760935765327581</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>11</v>
       </c>
@@ -1602,9 +1631,9 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
@@ -1621,7 +1650,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -1638,7 +1667,7 @@
         <v>0.40804080914032298</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -1655,7 +1684,7 @@
         <v>0.48471945151169987</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -1672,7 +1701,7 @@
         <v>0.35788365634950792</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -1689,7 +1718,7 @@
         <v>0.53040575076439478</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -1706,7 +1735,7 @@
         <v>0.4677790293315649</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -1723,7 +1752,7 @@
         <v>-9.0919241152433994E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -1740,7 +1769,7 @@
         <v>7.6783290637008728E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -1757,7 +1786,7 @@
         <v>-0.13015172541870701</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -1774,7 +1803,7 @@
         <v>0.1207481869378071</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -1791,7 +1820,7 @@
         <v>0.24497084072858871</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -1808,7 +1837,7 @@
         <v>0.91262306765980539</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -1825,7 +1854,7 @@
         <v>0.87633271657934608</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -1842,7 +1871,7 @@
         <v>0.92559412404658836</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -1859,7 +1888,7 @@
         <v>0.91154359233559223</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -1876,7 +1905,7 @@
         <v>0.86568957165576343</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -1893,7 +1922,7 @@
         <v>-48.193332555024277</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -1910,7 +1939,7 @@
         <v>0.83071606830899514</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -1927,7 +1956,7 @@
         <v>0.73775181754229102</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>16</v>
       </c>
@@ -1944,7 +1973,7 @@
         <v>-48.193332555024277</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>16</v>
       </c>
@@ -1974,9 +2003,9 @@
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
@@ -1993,7 +2022,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -2010,7 +2039,7 @@
         <v>0.64661976298544466</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -2027,7 +2056,7 @@
         <v>0.92679834695862306</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -2044,7 +2073,7 @@
         <v>0.91435218010949659</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -2061,7 +2090,7 @@
         <v>0.87493207039358856</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -2078,7 +2107,7 @@
         <v>0.85871447885988095</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -2095,7 +2124,7 @@
         <v>0.84516075546465141</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -2112,7 +2141,7 @@
         <v>0.84881906824677111</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -2129,7 +2158,7 @@
         <v>0.84471380942391905</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -2146,7 +2175,7 @@
         <v>0.72690643813956068</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -2163,7 +2192,7 @@
         <v>0.8823989928350594</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -2180,7 +2209,7 @@
         <v>0.73212619187871142</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -2197,7 +2226,7 @@
         <v>0.81697775258252614</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -2214,7 +2243,7 @@
         <v>0.88970767947423779</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -2231,7 +2260,7 @@
         <v>0.87603890723250433</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -2248,7 +2277,7 @@
         <v>0.79848886574491262</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -2265,7 +2294,7 @@
         <v>0.7145181983045279</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -2282,7 +2311,7 @@
         <v>0.70766591913575572</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -2299,7 +2328,7 @@
         <v>0.90435340083467397</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -2316,7 +2345,7 @@
         <v>0.73019537833075732</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -2331,6 +2360,378 @@
       </c>
       <c r="E21">
         <v>0.86663575803022797</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:E21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>50</v>
+      </c>
+      <c r="C2">
+        <v>3.6308751441538328E-4</v>
+      </c>
+      <c r="D2">
+        <v>6.9477746352402319</v>
+      </c>
+      <c r="E2">
+        <v>0.96821602392978001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <v>50</v>
+      </c>
+      <c r="C3">
+        <v>3.279798838775605E-4</v>
+      </c>
+      <c r="D3">
+        <v>6.6033410550291602</v>
+      </c>
+      <c r="E3">
+        <v>0.9712892698830069</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>50</v>
+      </c>
+      <c r="C4">
+        <v>3.994056314695626E-4</v>
+      </c>
+      <c r="D4">
+        <v>7.2869708269201894</v>
+      </c>
+      <c r="E4">
+        <v>0.96503682683589442</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>50</v>
+      </c>
+      <c r="C5">
+        <v>4.0622803498990828E-4</v>
+      </c>
+      <c r="D5">
+        <v>7.3489535328613567</v>
+      </c>
+      <c r="E5">
+        <v>0.96443950627004194</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>50</v>
+      </c>
+      <c r="C6">
+        <v>3.1337811378762131E-4</v>
+      </c>
+      <c r="D6">
+        <v>6.4546782598045356</v>
+      </c>
+      <c r="E6">
+        <v>0.9725674627230394</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>100</v>
+      </c>
+      <c r="C7">
+        <v>2.8466584626585251E-4</v>
+      </c>
+      <c r="D7">
+        <v>6.1518801786775184</v>
+      </c>
+      <c r="E7">
+        <v>0.9750808906685573</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>100</v>
+      </c>
+      <c r="C8">
+        <v>8.1987585872411728E-4</v>
+      </c>
+      <c r="D8">
+        <v>10.44033960652863</v>
+      </c>
+      <c r="E8">
+        <v>0.92822949022405754</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>100</v>
+      </c>
+      <c r="C9">
+        <v>6.042426684871316E-4</v>
+      </c>
+      <c r="D9">
+        <v>8.9628537134222448</v>
+      </c>
+      <c r="E9">
+        <v>0.94710563645653101</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>100</v>
+      </c>
+      <c r="C10">
+        <v>3.9691885467618698E-4</v>
+      </c>
+      <c r="D10">
+        <v>7.2642502475580146</v>
+      </c>
+      <c r="E10">
+        <v>0.96525451540256435</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>100</v>
+      </c>
+      <c r="C11">
+        <v>2.8797480626963079E-4</v>
+      </c>
+      <c r="D11">
+        <v>6.1875317045032876</v>
+      </c>
+      <c r="E11">
+        <v>0.97479123011112212</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>150</v>
+      </c>
+      <c r="C12">
+        <v>4.5747586409561341E-4</v>
+      </c>
+      <c r="D12">
+        <v>7.7987315870411376</v>
+      </c>
+      <c r="E12">
+        <v>0.95995348519588319</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13">
+        <v>150</v>
+      </c>
+      <c r="C13">
+        <v>3.151263517793268E-4</v>
+      </c>
+      <c r="D13">
+        <v>6.472654784343483</v>
+      </c>
+      <c r="E13">
+        <v>0.97241444862417403</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14">
+        <v>150</v>
+      </c>
+      <c r="C14">
+        <v>3.3008854370564222E-4</v>
+      </c>
+      <c r="D14">
+        <v>6.6245324303711559</v>
+      </c>
+      <c r="E14">
+        <v>0.97110469782452868</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15">
+        <v>150</v>
+      </c>
+      <c r="C15">
+        <v>4.1882222285494208E-4</v>
+      </c>
+      <c r="D15">
+        <v>7.4619921303536341</v>
+      </c>
+      <c r="E15">
+        <v>0.96333713895365081</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16">
+        <v>150</v>
+      </c>
+      <c r="C16">
+        <v>3.1692441552877432E-4</v>
+      </c>
+      <c r="D16">
+        <v>6.491093347634048</v>
+      </c>
+      <c r="E16">
+        <v>0.97225705960007525</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17">
+        <v>200</v>
+      </c>
+      <c r="C17">
+        <v>2.8049573302268982E-4</v>
+      </c>
+      <c r="D17">
+        <v>6.1066560193148414</v>
+      </c>
+      <c r="E17">
+        <v>0.9754459184308546</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18">
+        <v>200</v>
+      </c>
+      <c r="C18">
+        <v>3.0893483199179173E-4</v>
+      </c>
+      <c r="D18">
+        <v>6.4087587611707049</v>
+      </c>
+      <c r="E18">
+        <v>0.97295639227350528</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19">
+        <v>200</v>
+      </c>
+      <c r="C19">
+        <v>7.110343431122601E-4</v>
+      </c>
+      <c r="D19">
+        <v>9.7226620774234949</v>
+      </c>
+      <c r="E19">
+        <v>0.93775748069840503</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20">
+        <v>200</v>
+      </c>
+      <c r="C20">
+        <v>4.0939135942608118E-4</v>
+      </c>
+      <c r="D20">
+        <v>7.3775001318093993</v>
+      </c>
+      <c r="E20">
+        <v>0.96416270420334027</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21">
+        <v>200</v>
+      </c>
+      <c r="C21">
+        <v>5.2126485388725996E-4</v>
+      </c>
+      <c r="D21">
+        <v>8.3247237942884738</v>
+      </c>
+      <c r="E21">
+        <v>0.95436937204832062</v>
       </c>
     </row>
   </sheetData>
